--- a/LLM/Prompts/Karol Rzepinski/Idle_Karol_Rzepinski.xlsx
+++ b/LLM/Prompts/Karol Rzepinski/Idle_Karol_Rzepinski.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="285">
   <si>
     <t xml:space="preserve">Input</t>
   </si>
@@ -2272,7 +2272,1644 @@
     <t xml:space="preserve">Ascend the frost trail</t>
   </si>
   <si>
-    <t xml:space="preserve">x</t>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Vana.",
+"No potion fixes betrayal.",
+"I used to heal others. Now I watch them bleed.",
+"Every poison has an antidote—except love."
+],
+"obtained_memories": [
+{"memory": "A noble’s daughter collapsed after a feast.", "weight": 22},
+{"memory": "The herbalist was seen leaving the manor in haste.", "weight": 20}
+],
+"current_environment": [
+{"action": "Speak to the herbalist", "distance": 1},
+{"action": "Inspect the noble manor kitchen", "distance": 2},
+{"action": "Collect herbs from the swamp for testing", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak to the herbalist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Orrin.",
+"I count footsteps in my sleep—someone else’s.",
+"I never walk alleys twice.",
+"There’s a rhythm to fear. Once you hear it, it never stops."
+],
+"obtained_memories": [
+{"memory": "Footsteps echo where there should be silence in the lower ward.", "weight": 23},
+{"memory": "Children are avoiding the alley behind the bakery.", "weight": 19}
+],
+"current_environment": [
+{"action": "Inspect the alley behind the bakery", "distance": 1},
+{"action": "Walk through the lower ward at night", "distance": 2},
+{"action": "Ask children what they saw", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": "Ask children what they saw"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Walk through the lower ward at night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Isen.",
+"When the stars vanished, I started watching people instead.",
+"You can predict a storm by the crows—and a betrayal by silence.",
+"I don’t need proof. I need timing."
+],
+"obtained_memories": [
+{"memory": "A strange pattern of crow sightings near the mayor’s estate.", "weight": 21},
+{"memory": "All town clocks stopped at the same hour last night.", "weight": 22}
+],
+"current_environment": [
+{"action": "Stake out the mayor’s estate", "distance": 2},
+{"action": "Check the town bell tower", "distance": 3},
+{"action": "Speak to the timekeeper", "distance": 1}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Stake out the mayor’s estate</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Renna.",
+"The stars once spoke to me—then they screamed.",
+"I feel a pull toward places I’ve never been.",
+"Something old is waking beneath the city."
+],
+"obtained_memories": [
+{"memory": "Strange lights seen in the sewer tunnels.", "weight": 24},
+{"memory": "A group of rats was found perfectly arranged in a circle.", "weight": 21}
+],
+"current_environment": [
+{"action": "Enter the sewers", "distance": 3},
+{"action": "Speak with the ratcatcher", "distance": 2},
+{"action": "Watch the lights from the street grate", "distance": 1}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak with the ratcatcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Lys.",
+"My dreams bleed into daylight.",
+"The mirror never shows me alone.",
+"Some reflections aren't yours to claim."
+],
+"obtained_memories": [
+{"memory": "A cracked mirror reappeared in the inn cellar.", "weight": 23},
+{"memory": "Someone saw two Lys walking out of the bathhouse.", "weight": 20}
+],
+"current_environment": [
+{"action": "Go to the bathhouse", "distance": 2},
+{"action": "Enter the inn cellar", "distance": 3},
+{"action": "Question the innkeeper", "distance": 1}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": "Question the innkeeper"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to the bathhouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Taron.",
+"I was born in the mud, but I see through marble walls.",
+"Servants gossip more truth than lords confess.",
+"If a door is locked, there's a reason."
+],
+"obtained_memories": [
+{"memory": "The noble’s steward was caught burning documents.", "weight": 21},
+{"memory": "A secret door was seen behind the wine racks.", "weight": 19}
+],
+"current_environment": [
+{"action": "Sneak into the wine cellar", "distance": 2},
+{"action": "Confront the steward", "distance": 1},
+{"action": "Speak with the house cook", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confront the steward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Elen.",
+"I feel truth in vibrations—voices, walls, ground.",
+"I once listened to a man’s heartbeat stop mid-lie.",
+"I trust nothing unless I can feel it."
+],
+"obtained_memories": [
+{"memory": "Footsteps echoed below the council chamber last night.", "weight": 23},
+{"memory": "The walls of the council hall hum with strange energy.", "weight": 22}
+],
+"current_environment": [
+{"action": "Enter the council chamber basement", "distance": 3},
+{"action": "Touch the walls of the council hall", "distance": 1},
+{"action": "Question the janitor", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Touch the walls of the council hall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Joren.",
+"Steel is honest. People aren’t.",
+"I earned my scars watching others lie.",
+"When I feel uneasy, I sharpen my blade."
+],
+"obtained_memories": [
+{"memory": "The blacksmith's hammering stopped during the murder.", "weight": 20},
+{"memory": "A blade with dried blood was found in the ashes.", "weight": 22}
+],
+"current_environment": [
+{"action": "Question the blacksmith", "distance": 1},
+{"action": "Search the forge ashes", "distance": 2},
+{"action": "Inspect weapons on display", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search the forge ashes</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Kira.",
+"I see spirits in the reflections of puddles.",
+"Children speak to things adults pretend don’t exist.",
+"Some games are older than time."
+],
+"obtained_memories": [
+{"memory": "Children drew runes in the mud near the school.", "weight": 20},
+{"memory": "A teacher disappeared after recess.", "weight": 21}
+],
+"current_environment": [
+{"action": "Talk to the children", "distance": 2},
+{"action": "Enter the abandoned classroom", "distance": 3},
+{"action": "Examine the mud drawings", "distance": 1}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examine the mud drawings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Dain.",
+"I was buried once—by avalanche, not choice.",
+"Silence under snow is different from peace.",
+"I still wake choking on memory."
+],
+"obtained_memories": [
+{"memory": "A tremor was felt near the old mining shaft.", "weight": 24},
+{"memory": "Miners heard whispers before abandoning the site.", "weight": 23}
+],
+"current_environment": [
+{"action": "Enter the abandoned shaft", "distance": 3},
+{"action": "Speak with retired miners", "distance": 2},
+{"action": "Check tremor records at town hall", "distance": 1}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak with retired miners</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Fen.",
+"Storms always come before the truth.",
+"I don’t fear thunder—I fear silence after.",
+"My mother died under open sky with her secrets."
+],
+"obtained_memories": [
+{"memory": "A storm washed up an old diary sealed in wax.", "weight": 22},
+{"memory": "The diary pages mention a ritual under lightning.", "weight": 20}
+],
+"current_environment": [
+{"action": "Read the diary at the archive", "distance": 1},
+{"action": "Speak to the old widow who found it", "distance": 2},
+{"action": "Visit the ritual site on the cliff", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": "Visit the ritual site on the cliff"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the diary at the archive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Nyra.",
+"Every curse is just a promise waiting.",
+"I’ve heard trees whisper when no wind blows.",
+"Truth lives in roots deeper than memory."
+],
+"obtained_memories": [
+{"memory": "A cursed sigil was found carved into an oak.", "weight": 24},
+{"memory": "A hunter vanished near the old grove.", "weight": 21}
+],
+"current_environment": [
+{"action": "Examine the sigil", "distance": 1},
+{"action": "Search the grove", "distance": 3},
+{"action": "Speak with the hunter's kin", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examine the sigil</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Cal.",
+"I was a thief before I became a spy.",
+"If you don't hear lies, you're not listening.",
+"Secrets don’t rot—they ferment."
+],
+"obtained_memories": [
+{"memory": "The mayor's aide was caught meeting with an outsider.", "weight": 22},
+{"memory": "A bribe pouch was found near the meeting point.", "weight": 20}
+],
+"current_environment": [
+{"action": "Tail the aide", "distance": 2},
+{"action": "Inspect the meeting point", "distance": 1},
+{"action": "Question the outsider at the inn", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tail the aide</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Vex.",
+"I remember every face I’ve failed.",
+"The fire wasn’t an accident.",
+"Smoke doesn’t forget who struck the match."
+],
+"obtained_memories": [
+{"memory": "The bakery fire left no ash near the source.", "weight": 23},
+{"memory": "A soot-covered doll was found untouched.", "weight": 20}
+],
+"current_environment": [
+{"action": "Inspect the doll at the constable's office", "distance": 1},
+{"action": "Revisit the bakery ruins", "distance": 2},
+{"action": "Talk to the surviving baker", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Revisit the bakery ruins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Solen.",
+"The library isn’t silent—it murmurs.",
+"I once found a map that led to my own grave.",
+"Books lie, but margins speak truth."
+],
+"obtained_memories": [
+{"memory": "A page was torn from a forbidden tome.", "weight": 24},
+{"memory": "Ink on the page changes depending on the reader.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search the restricted section", "distance": 2},
+{"action": "Study the ink under candlelight", "distance": 1},
+{"action": "Consult the head librarian", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": "Consult the head librarian"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Study the ink under candlelight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Thalen.",
+"My fingers remember strings better than blades.",
+"Songs carry truths no tongue dares utter.",
+"They killed a bard once for singing the wrong verse."
+],
+"obtained_memories": [
+{"memory": "Someone hummed a forbidden melody near the gallows.", "weight": 23},
+{"memory": "The song mentions a buried scandal involving the magistrate.", "weight": 22}
+],
+"current_environment": [
+{"action": "Play the melody in the tavern", "distance": 1},
+{"action": "Ask the jailer about the gallows", "distance": 2},
+{"action": "Search the magistrate’s records", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Play the melody in the tavern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Irel.",
+"Dreams speak loudest before waking.",
+"Prophecy comes like hunger—sudden and desperate.",
+"I once fasted a week to see tomorrow."
+],
+"obtained_memories": [
+{"memory": "A child drew visions of a fire that hasn’t happened yet.", "weight": 25},
+{"memory": "The seer’s tent is closed—marked with ashes.", "weight": 21}
+],
+"current_environment": [
+{"action": "Visit the seer’s tent", "distance": 2},
+{"action": "Speak with the child's parents", "distance": 1},
+{"action": "Fast and meditate by the shrine", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak with the child's parents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Corven.",
+"Silence after laughter is always warning.",
+"I’ve slit more throats than I've shared meals.",
+"You can’t wash off betrayal, not even in blood."
+],
+"obtained_memories": [
+{"memory": "The tavern keeper stopped smiling when the taxman arrived.", "weight": 20},
+{"memory": "Someone paid for two rooms but only entered one.", "weight": 23}
+],
+"current_environment": [
+{"action": "Confront the taxman", "distance": 2},
+{"action": "Check the second tavern room", "distance": 1},
+{"action": "Tail the tavern keeper", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the second tavern room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Vael.",
+"I do not mourn the dead—I follow them.",
+"Every spirit leaves a fingerprint in air.",
+"I buried my brother twice: once in earth, once in lies."
+],
+"obtained_memories": [
+{"memory": "Someone keeps lighting candles at an unmarked grave.", "weight": 22},
+{"memory": "The name 'Rowan' was scratched off a headstone.", "weight": 24}
+],
+"current_environment": [
+{"action": "Investigate the unmarked grave", "distance": 1},
+{"action": "Speak to the gravekeeper", "distance": 2},
+{"action": "Check temple death records", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate the unmarked grave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Orla.",
+"Every lie tastes different in my mouth.",
+"I was born during an eclipse.",
+"No one’s truth is clean—not even mine."
+],
+"obtained_memories": [
+{"memory": "The mayor visited the apothecary at midnight.", "weight": 20},
+{"memory": "Herbs used for truth serum were reported stolen.", "weight": 22}
+],
+"current_environment": [
+{"action": "Question the apothecary", "distance": 1},
+{"action": "Sneak into the mayor’s office", "distance": 3},
+{"action": "Check the herb storage logs", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question the apothecary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Ren.",
+"Walls have ears, but floors remember footsteps.",
+"I once tracked a killer by the way he limped.",
+"Sleep is for those without enemies."
+],
+"obtained_memories": [
+{"memory": "Mud prints led away from the crime scene toward the mill.", "weight": 25},
+{"memory": "The mill was locked, but the wheel spun at night.", "weight": 21}
+],
+"current_environment": [
+{"action": "Break into the mill", "distance": 3},
+{"action": "Track the muddy prints", "distance": 2},
+{"action": "Interview the night guard", "distance": 1}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": "Break into the mill"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Interview the night guard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Zira.",
+"I owe the river three favors and one secret.",
+"Water listens, and it never forgives.",
+"I once drowned to hear a whisper."
+],
+"obtained_memories": [
+{"memory": "The ferryman refuses to cross after sundown.", "weight": 21},
+{"memory": "A body floated down with coins still in its mouth.", "weight": 24}
+],
+"current_environment": [
+{"action": "Speak with the ferryman", "distance": 1},
+{"action": "Inspect the corpse at the morgue", "distance": 2},
+{"action": "Sail downriver after dark", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak with the ferryman</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Alric.",
+"I read faster than I bleed.",
+"The archivist once hid evidence in a footnote.",
+"History is written by cowards with ink and shame."
+],
+"obtained_memories": [
+{"memory": "The town’s founding year was altered in public records.", "weight": 23},
+{"memory": "An older copy shows a missing name: ‘Marwen’", "weight": 20}
+],
+"current_environment": [
+{"action": "Cross-check founding documents", "distance": 1},
+{"action": "Search archivist’s private room", "distance": 2},
+{"action": "Ask town elders about Marwen", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Cross-check founding documents</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Sera.",
+"I was trained to watch shadows, not cast them.",
+"They never taught me what to do when the shadow stares back.",
+"Secrets move faster than messengers."
+],
+"obtained_memories": [
+{"memory": "A shadow was seen moving opposite its caster.", "weight": 24},
+{"memory": "The mirror in the magistrate’s hall cracked with no cause.", "weight": 22}
+],
+"current_environment": [
+{"action": "Investigate the mirror", "distance": 1},
+{"action": "Check the shadow corridor", "distance": 2},
+{"action": "Consult the blind priest", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": "Consult the blind priest"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate the mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Nalin.",
+"Fire keeps beasts away, but draws men with torches.",
+"I lit my first pyre at seven.",
+"Ashes reveal more than blood."
+],
+"obtained_memories": [
+{"memory": "The charred remains of a ledger were found under a hearth.", "weight": 22},
+{"memory": "Witnesses say the fire burned green.", "weight": 21}
+],
+"current_environment": [
+{"action": "Examine hearth remains", "distance": 1},
+{"action": "Interview the arson witness", "distance": 2},
+{"action": "Retrieve ledger fragments from constable", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examine hearth remains</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Kael.",
+"The city sings when no one listens.",
+"I dream in symbols I don’t understand.",
+"My mother warned me about quiet doors."
+],
+"obtained_memories": [
+{"memory": "The bell tower rang three times at midnight, but no one pulled the rope.", "weight": 25},
+{"memory": "A door was left open in the abandoned archives.", "weight": 21}
+],
+"current_environment": [
+{"action": "Inspect the bell tower", "distance": 1},
+{"action": "Enter the archive building", "distance": 2},
+{"action": "Ask the watchman on duty", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspect the bell tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Mira.",
+"I trust reflections more than people.",
+"I once saw my twin in a mirror. I don’t have a twin.",
+"Glass can lie better than words."
+],
+"obtained_memories": [
+{"memory": "The window in the healer’s hut reflects a different room.", "weight": 24},
+{"memory": "A mirror was covered in salt and ash.", "weight": 22}
+],
+"current_environment": [
+{"action": "Speak to the healer", "distance": 2},
+{"action": "Examine the covered mirror", "distance": 1},
+{"action": "Look through the strange window", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examine the covered mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Bryn.",
+"A blade is only as loyal as the hand that swings it.",
+"I lost my sword and my father in the same war.",
+"The quiet before battle feels like holding your breath too long."
+],
+"obtained_memories": [
+{"memory": "The armory has a blade that looks like my father's.", "weight": 21},
+{"memory": "A guard said the blade was found near the northern ridge.", "weight": 23}
+],
+"current_environment": [
+{"action": "Inspect the armory blade", "distance": 1},
+{"action": "Question the guard", "distance": 2},
+{"action": "Visit the northern ridge", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspect the armory blade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Thera.",
+"Silence is how the dead speak.",
+"I never speak the names of those I've buried.",
+"The cemetery shifts at night. I swear it moves."
+],
+"obtained_memories": [
+{"memory": "A grave is dug up, but no one reports the missing body.", "weight": 25},
+{"memory": "Fresh footprints lead away from the eastern plot.", "weight": 22}
+],
+"current_environment": [
+{"action": "Examine the disturbed grave", "distance": 1},
+{"action": "Follow the footprints", "distance": 2},
+{"action": "Speak with the night mourner", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Examine the disturbed grave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Aven.",
+"I always wake before dawn—dreams flee the sunrise.",
+"They buried something beneath the baker’s floor.",
+"No one eats his bread, yet he never runs out."
+],
+"obtained_memories": [
+{"memory": "Someone heard crying from under the bakery.", "weight": 24},
+{"memory": "The flour sack was half blood.", "weight": 23}
+],
+"current_environment": [
+{"action": "Confront the baker", "distance": 1},
+{"action": "Investigate the bakery basement", "distance": 2},
+{"action": "Watch the bakery from the alley", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 4},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": "Watch the bakery from the alley"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confront the baker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Lior.",
+"I collect stories like others collect coins.",
+"Some tales are heavier than gold.",
+"Once, a lie saved an entire village."
+],
+"obtained_memories": [
+{"memory": "An old man refuses to tell the story of the fire.", "weight": 21},
+{"memory": "A child drew the fire in detail—though it happened before she was born.", "weight": 22}
+],
+"current_environment": [
+{"action": "Talk to the child", "distance": 1},
+{"action": "Convince the old man to speak", "distance": 2},
+{"action": "Search old village scrolls", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to the child</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Sion.",
+"I hear things others miss—footsteps, breath, guilt.",
+"The heartbeat of a liar stutters.",
+"I was trained in the monastery to listen, not to speak."
+],
+"obtained_memories": [
+{"memory": "The priest paused too long when asked about the locked chamber.", "weight": 21},
+{"memory": "Someone whispered prayers in a forbidden tongue.", "weight": 23}
+],
+"current_environment": [
+{"action": "Ask about the locked chamber", "distance": 2},
+{"action": "Observe prayers in the sanctuary", "distance": 1},
+{"action": "Break into the monastery library", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": "Break into the monastery library"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Observe prayers in the sanctuary</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Elar.",
+"Maps are for the lost. I walk by memory.",
+"I once got lost in the woods and returned older.",
+"Not all paths lead somewhere. Some lead someone."
+],
+"obtained_memories": [
+{"memory": "A tree had carvings older than the village itself.", "weight": 22},
+{"memory": "The path behind the waterfall reappeared after the flood.", "weight": 25}
+],
+"current_environment": [
+{"action": "Explore the path behind the waterfall", "distance": 2},
+{"action": "Sketch the tree carvings", "distance": 1},
+{"action": "Ask elders about the old woods", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Sketch the tree carvings</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Dren.",
+"I once served a king who feared his own throne.",
+"Power sits best on a liar's tongue.",
+"I was cast out for telling the truth."
+],
+"obtained_memories": [
+{"memory": "The steward burns letters before anyone can read them.", "weight": 24},
+{"memory": "A crown was hidden beneath the floorboards.", "weight": 23}
+],
+"current_environment": [
+{"action": "Search beneath the throne", "distance": 3},
+{"action": "Speak to the steward", "distance": 1},
+{"action": "Check the burned letter pile", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak to the steward</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Nira.",
+"I learned to read lips before I learned to walk.",
+"Whispers carry heavier truths than screams.",
+"I once read a goodbye no one ever said aloud."
+],
+"obtained_memories": [
+{"memory": "Two men spoke without words on the docks.", "weight": 20},
+{"memory": "A sailor cried while holding an empty locket.", "weight": 23}
+],
+"current_environment": [
+{"action": "Follow the mute sailors", "distance": 2},
+{"action": "Investigate the locket", "distance": 1},
+{"action": "Search the ship manifests", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate the locket</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Varek.",
+"I don’t ask questions I don’t want the answers to.",
+"Last time I trusted a smile, I buried my brother.",
+"Secrets smell like ink and sweat."
+],
+"obtained_memories": [
+{"memory": "The mayor’s study reeks of fresh ink at midnight.", "weight": 23},
+{"memory": "A page was torn from the city ledger.", "weight": 22}
+],
+"current_environment": [
+{"action": "Confront the mayor", "distance": 2},
+{"action": "Search the city ledger room", "distance": 1},
+{"action": "Speak with the clerk", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": "Speak with the clerk"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search the city ledger room</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Serel.",
+"I watched a star fall when my sister died.",
+"The sky lies; it changes every night.",
+"I find truth in patterns, not promises."
+],
+"obtained_memories": [
+{"memory": "The observatory recorded a second moon, then scratched it out.", "weight": 25},
+{"memory": "The nightwatcher hasn't spoken since the last eclipse.", "weight": 22}
+],
+"current_environment": [
+{"action": "Question the nightwatcher", "distance": 1},
+{"action": "Break into the observatory", "distance": 3},
+{"action": "View the scratched journal", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Question the nightwatcher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Elen.",
+"I can’t forget the fire. Or the screams.",
+"I don’t trust quiet houses or locked doors.",
+"I survived by not asking why."
+],
+"obtained_memories": [
+{"memory": "The house on Elder Lane burned and rebuilt itself overnight.", "weight": 26},
+{"memory": "Children whisper about faces in its windows.", "weight": 21},
+{"memory": "The mayor paid workers to keep silent about the house.", "weight": 24},
+{"memory": "An old journal described similar fires 100 years ago.", "weight": 22},
+{"memory": "There’s no record of anyone living there—ever.", "weight": 23}
+],
+"current_environment": [
+{"action": "Approach the house on Elder Lane", "distance": 1},
+{"action": "Ask the children in the square", "distance": 2},
+{"action": "Search the town records", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Approach the house on Elder Lane</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Halven.",
+"I know how to disappear in a crowd.",
+"Lies make people louder; guilt makes them still.",
+"The alleyways always have ears."
+],
+"obtained_memories": [
+{"memory": "The merchant’s assistant meets someone at night behind the stables.", "weight": 20},
+{"memory": "Footprints lead from the alley to the chapel wall.", "weight": 22},
+{"memory": "The blacksmith heard hushed arguing behind the tannery.", "weight": 19},
+{"memory": "Coins with strange markings were found in the fountain.", "weight": 23},
+{"memory": "A city guard asked me not to look into it.", "weight": 25}
+],
+"current_environment": [
+{"action": "Wait behind the stables", "distance": 2},
+{"action": "Inspect chapel wall", "distance": 1},
+{"action": "Confront the city guard", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Inspect chapel wall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Mirel.",
+"I listen better than I speak.",
+"Secrets beg to be unraveled.",
+"Books don’t lie, but readers do."
+],
+"obtained_memories": [
+{"memory": "The librarian removed a page from the oldest ledger.", "weight": 24},
+{"memory": "Someone tried to borrow a book that doesn’t exist.", "weight": 21},
+{"memory": "Ink stains led to a loose floorboard in the archives.", "weight": 22},
+{"memory": "The binding glue smelled like fresh blood.", "weight": 20}
+],
+"current_environment": [
+{"action": "Search the library archives", "distance": 1},
+{"action": "Follow the librarian home", "distance": 2},
+{"action": "Ask about the missing page", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": "Ask about the missing page"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search the library archives</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Rolan.",
+"I wake up with dirt on my hands.",
+"The dead do not rest where I live.",
+"I dream of knocking from beneath the floorboards."
+],
+"obtained_memories": [
+{"memory": "Graves were disturbed during the last full moon.", "weight": 25},
+{"memory": "The priest refuses to enter the crypt anymore.", "weight": 24},
+{"memory": "There’s a name scratched on my cellar wall.", "weight": 23},
+{"memory": "Someone left funeral flowers on my doorstep.", "weight": 20},
+{"memory": "My door was unlocked again this morning.", "weight": 19}
+],
+"current_environment": [
+{"action": "Go down into the crypt", "distance": 2},
+{"action": "Speak with the priest", "distance": 1},
+{"action": "Inspect the cellar", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak with the priest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Talir.",
+"I lost my shadow during the eclipse.",
+"Mirrors show too much.",
+"The world feels thinner near the old ruins."
+],
+"obtained_memories": [
+{"memory": "My reflection didn’t move yesterday.", "weight": 25},
+{"memory": "A child pointed and said 'You're not you.'", "weight": 23},
+{"memory": "A cracked mirror hummed when I touched it.", "weight": 24},
+{"memory": "The ruins glow faintly after sunset.", "weight": 22},
+{"memory": "The apothecary burns herbs when I walk by.", "weight": 19}
+],
+"current_environment": [
+{"action": "Return to the ruins", "distance": 1},
+{"action": "Speak with the apothecary", "distance": 2},
+{"action": "Break the cracked mirror", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the ruins</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Jorin.",
+"I know every face in this village.",
+"Strangers don’t knock. They wait.",
+"I don’t like when things go quiet suddenly."
+],
+"obtained_memories": [
+{"memory": "A cloaked man watched from the old barn for hours.", "weight": 22},
+{"memory": "The tavern chatter died when I entered.", "weight": 21},
+{"memory": "My dog growled at the shadows near the mill.", "weight": 23},
+{"memory": "The wind carried a voice that wasn’t mine.", "weight": 24}
+],
+"current_environment": [
+{"action": "Investigate the old barn", "distance": 2},
+{"action": "Ask around at the tavern", "distance": 1},
+{"action": "Check the mill", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask around at the tavern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Kael.",
+"The woods took my sister. I want her back.",
+"Animals don’t enter that part of the forest.",
+"The wind screams there at night."
+],
+"obtained_memories": [
+{"memory": "I found her scarf tied to a hollow tree.", "weight": 24},
+{"memory": "I heard her voice calling from deep within.", "weight": 26},
+{"memory": "Someone left a lantern burning on the path.", "weight": 23},
+{"memory": "The local hunter warned me to stay out.", "weight": 20}
+],
+"current_environment": [
+{"action": "Enter the forest path", "distance": 1},
+{"action": "Question the hunter", "distance": 2},
+{"action": "Search the hollow tree", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter the forest path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Lira.",
+"I dream of drowning every night.",
+"I was born during a flood that killed dozens.",
+"Water whispers things no one should hear."
+],
+"obtained_memories": [
+{"memory": "A fisherman found a child's shoe near the drowned bridge.", "weight": 21},
+{"memory": "The riverbank shifted overnight.", "weight": 22},
+{"memory": "I heard laughter bubbling under the water.", "weight": 24},
+{"memory": "My name was carved into a stone underwater.", "weight": 25},
+{"memory": "The old ferryman avoids my gaze.", "weight": 19}
+],
+"current_environment": [
+{"action": "Go to the drowned bridge", "distance": 1},
+{"action": "Talk to the ferryman", "distance": 2},
+{"action": "Search the riverbank", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to the drowned bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Veyr.",
+"I saw something fall from the sky and bury itself in the hills.",
+"It pulsed. Once.",
+"I haven’t felt normal since."
+],
+"obtained_memories": [
+{"memory": "The hilltop soil is warm to the touch.", "weight": 23},
+{"memory": "Birds avoid the crater entirely.", "weight": 24},
+{"memory": "A green shimmer moves when no one is looking.", "weight": 25},
+{"memory": "My heartbeat syncs when I stand near it.", "weight": 26}
+],
+"current_environment": [
+{"action": "Climb the hill to the crater", "distance": 1},
+{"action": "Consult the herbalist", "distance": 3},
+{"action": "Visit the lookout tower", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climb the hill to the crater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Sorin.",
+"I hear music when others hear screams.",
+"Pain harmonizes differently each time.",
+"I remember the tune of my mother’s death."
+],
+"obtained_memories": [
+{"memory": "Someone plays her lullaby in the square every dusk.", "weight": 25},
+{"memory": "The violinist doesn’t seem to age.", "weight": 24},
+{"memory": "The song was banned by the mayor's decree.", "weight": 22},
+{"memory": "An old man clutches his ears when it plays.", "weight": 21},
+{"memory": "I finish the song in my sleep.", "weight": 23}
+],
+"current_environment": [
+{"action": "Talk to the violinist", "distance": 1},
+{"action": "Question the mayor", "distance": 2},
+{"action": "Visit the old man’s home", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to the violinist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Theron.",
+"I was left behind during the great crossing.",
+"Abandonment sharpens the senses.",
+"I only trust dogs and locked doors."
+],
+"obtained_memories": [
+{"memory": "A bootprint near the river matches no local cobbler.", "weight": 21},
+{"memory": "Someone has been feeding the stray dog at the old camp.", "weight": 19},
+{"memory": "I found a silver buckle marked with a northern crest.", "weight": 22},
+{"memory": "The campfire coals were still warm last night.", "weight": 23}
+],
+"current_environment": [
+{"action": "Return to the old camp", "distance": 1},
+{"action": "Track the bootprints along the river", "distance": 2},
+{"action": "Ask the cobbler about the crest", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the old camp</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Ysolda.",
+"My father warned me about songs in the wind.",
+"I believe him now.",
+"Every time I whistle, something answers."
+],
+"obtained_memories": [
+{"memory": "Leaves stirred in rhythm with my breath.", "weight": 24},
+{"memory": "The old bard stopped mid-verse when I entered.", "weight": 22},
+{"memory": "A storm broke out the moment I stopped humming.", "weight": 21},
+{"memory": "A girl vanished after singing by the cliffs.", "weight": 25}
+],
+"current_environment": [
+{"action": "Return to the cliff’s edge", "distance": 2},
+{"action": "Speak with the bard", "distance": 1},
+{"action": "Visit the girl’s family", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Speak with the bard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Davor.",
+"I served under banners I didn't believe in.",
+"Orders mean nothing when the sky falls.",
+"Smoke smells like memory."
+],
+"obtained_memories": [
+{"memory": "The war memorial was defaced with my name.", "weight": 22},
+{"memory": "A child saluted me without knowing why.", "weight": 20},
+{"memory": "Someone left medals at my doorstep.", "weight": 21},
+{"memory": "I dream of commands I never gave.", "weight": 23}
+],
+"current_environment": [
+{"action": "Visit the memorial", "distance": 1},
+{"action": "Question the mayor about records", "distance": 3},
+{"action": "Follow the child who saluted me", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": "Follow the child who saluted me"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the memorial</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Fenna.",
+"My brother vanished after finding that coin.",
+"No one believes me about the shadows.",
+"I do not fear being alone. I fear being followed."
+],
+"obtained_memories": [
+{"memory": "The same coin appeared in my drawer this morning.", "weight": 24},
+{"memory": "A shadow moved but cast no shape.", "weight": 25},
+{"memory": "The fortune teller screamed when I asked about my brother.", "weight": 23},
+{"memory": "Mirrors crack when I hold that coin.", "weight": 22}
+],
+"current_environment": [
+{"action": "Return to the fortune teller", "distance": 2},
+{"action": "Go to my brother's last known location", "distance": 1},
+{"action": "Bury the coin", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Go to my brother's last known location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Havel.",
+"I am not the first to wear this name.",
+"Every heir forgets something. I remember too much.",
+"My bloodline is cursed, and I am its edge."
+],
+"obtained_memories": [
+{"memory": "The old chapel holds records with no ink.", "weight": 24},
+{"memory": "A stranger recognized me before I spoke.", "weight": 21},
+{"memory": "My family crest was carved under a bridge stone.", "weight": 22},
+{"memory": "The noble ring burned my finger when worn.", "weight": 25}
+],
+"current_environment": [
+{"action": "Search under the bridge", "distance": 1},
+{"action": "Return to the chapel", "distance": 2},
+{"action": "Seek the stranger", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search under the bridge</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Calra.",
+"Dreams guide me, even when I don’t sleep.",
+"A silver thread connects every lie.",
+"I woke once to find a note I never wrote."
+],
+"obtained_memories": [
+{"memory": "The note said 'Don’t trust the second face.'", "weight": 24},
+{"memory": "A child asked if I was the 'first' or the 'real' me.", "weight": 21},
+{"memory": "I saw myself in the alley last night.", "weight": 25},
+{"memory": "The silver thread shimmered near the tailor’s.", "weight": 22}
+],
+"current_environment": [
+{"action": "Confront the tailor", "distance": 2},
+{"action": "Return to the alley", "distance": 1},
+{"action": "Visit the child’s home", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the alley</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Reth.",
+"I don’t recall being born, but I remember dying.",
+"The gravekeeper bows to me.",
+"I see the dead in reflections."
+],
+"obtained_memories": [
+{"memory": "A mirror in the inn shows me rotting.", "weight": 23},
+{"memory": "My grave has fresh flowers every day.", "weight": 25},
+{"memory": "The gravekeeper calls me ‘sir’.", "weight": 24},
+{"memory": "Children cry when I look at them.", "weight": 22}
+],
+"current_environment": [
+{"action": "Visit the graveyard", "distance": 1},
+{"action": "Smash the inn’s mirror", "distance": 2},
+{"action": "Talk to the gravekeeper", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the graveyard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Anwen.",
+"I heard my mother’s voice a year after she died.",
+"The woods answer in the wrong tongue.",
+"Roots move when no one watches."
+],
+"obtained_memories": [
+{"memory": "A flower bloomed in her grave last night.", "weight": 25},
+{"memory": "The old gardener won’t step near that tree.", "weight": 22},
+{"memory": "A root curled around my ankle as I wept.", "weight": 23},
+{"memory": "I heard her lullaby echo through the orchard.", "weight": 24}
+],
+"current_environment": [
+{"action": "Return to the orchard", "distance": 1},
+{"action": "Talk to the gardener", "distance": 2},
+{"action": "Dig up the flower", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the orchard</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Brann.",
+"I saw the lighthouse blink at noon.",
+"It was never meant to be lit in daylight.",
+"They covered up the last disappearance."
+],
+"obtained_memories": [
+{"memory": "Saltwater flooded my boots on dry ground.", "weight": 23},
+{"memory": "The old captain won’t talk about the storm.", "weight": 21},
+{"memory": "There’s a new door at the base of the lighthouse.", "weight": 24},
+{"memory": "The map in the inn changed overnight.", "weight": 22}
+],
+"current_environment": [
+{"action": "Investigate the lighthouse", "distance": 1},
+{"action": "Speak with the old captain", "distance": 3},
+{"action": "Check the inn's map", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Investigate the lighthouse</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Estra.",
+"I once heard a clock ticking where none existed.",
+"Time folds strangely in this village.",
+"I was gone for three minutes—or three years."
+],
+"obtained_memories": [
+{"memory": "My calendar advanced a month overnight.", "weight": 24},
+{"memory": "I saw myself walk by, older by decades.", "weight": 26},
+{"memory": "The bell tower rang thirteen times.", "weight": 23},
+{"memory": "A child remembered me from a storybook.", "weight": 21}
+],
+"current_environment": [
+{"action": "Climb the bell tower", "distance": 1},
+{"action": "Speak with the child’s teacher", "distance": 3},
+{"action": "Search for the older me", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climb the bell tower</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Malric.",
+"I’ve buried more friends than I can remember.",
+"Graves don’t stay still in this soil.",
+"I keep a list of names I’ve forgotten."
+],
+"obtained_memories": [
+{"memory": "The grave I dug yesterday was filled again this morning.", "weight": 23},
+{"memory": "Someone left a fresh shovel leaning on my door.", "weight": 20},
+{"memory": "I found footprints inside a sealed tomb.", "weight": 24},
+{"memory": "A name reappeared on my list, crossed out twice before.", "weight": 25}
+],
+"current_environment": [
+{"action": "Reopen the sealed tomb", "distance": 1},
+{"action": "Speak with the graveyard keeper", "distance": 3},
+{"action": "Inspect the filled grave", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reopen the sealed tomb</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Selka.",
+"I never wanted to hear the bell again.",
+"It tolls only when the veil weakens.",
+"I feel older each time it rings."
+],
+"obtained_memories": [
+{"memory": "The bell rang at midnight, but no one else heard it.", "weight": 22},
+{"memory": "A strand of my hair turned white after the last toll.", "weight": 23},
+{"memory": "A voice whispered my name between chimes.", "weight": 24},
+{"memory": "The bell rope was cut, but it still sways.", "weight": 25}
+],
+"current_environment": [
+{"action": "Inspect the bell tower", "distance": 1},
+{"action": "Consult the herbalist", "distance": 2},
+{"action": "Talk to the priest", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": "Talk to the priest"
+}</t>
   </si>
 </sst>
 </file>
@@ -2355,7 +3992,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -2366,6 +4003,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -2387,8 +4028,8 @@
   </sheetPr>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E2" activeCellId="0" sqref="E2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A158" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B179" activeCellId="0" sqref="B179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3067,74 +4708,539 @@
       <c r="B84" s="2" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="85" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="88" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="89" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="92" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="93" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="94" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="95" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="96" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="97" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="98" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="99" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="100" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="101" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="102" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="103" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="104" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="105" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="106" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="107" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="108" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="109" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="110" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="111" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="112" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="115" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="116" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="117" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="118" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="119" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C119" s="0" t="s">
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" customFormat="false" ht="330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A85" s="2" t="s">
         <v>168</v>
       </c>
-    </row>
-    <row r="120" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="121" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="122" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="123" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="124" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="125" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="126" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="127" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="128" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="129" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="130" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="131" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="132" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="133" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="134" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="135" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="136" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="137" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="138" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="139" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C139" s="0" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="140" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="141" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="142" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="143" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="B85" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C85" s="3"/>
+    </row>
+    <row r="86" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A86" s="2" t="s">
+        <v>170</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C86" s="3"/>
+    </row>
+    <row r="87" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A87" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="C87" s="3"/>
+    </row>
+    <row r="88" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A88" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C88" s="3"/>
+    </row>
+    <row r="89" customFormat="false" ht="305.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A89" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="C89" s="3"/>
+    </row>
+    <row r="90" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A90" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C90" s="3"/>
+    </row>
+    <row r="91" customFormat="false" ht="330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A91" s="2" t="s">
+        <v>180</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C91" s="3"/>
+    </row>
+    <row r="92" customFormat="false" ht="330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A92" s="2" t="s">
+        <v>182</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>183</v>
+      </c>
+      <c r="C92" s="3"/>
+    </row>
+    <row r="93" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A93" s="2" t="s">
+        <v>184</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C93" s="3"/>
+    </row>
+    <row r="94" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A94" s="2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>187</v>
+      </c>
+      <c r="C94" s="3"/>
+    </row>
+    <row r="95" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A95" s="2" t="s">
+        <v>188</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>189</v>
+      </c>
+      <c r="C95" s="3"/>
+    </row>
+    <row r="96" customFormat="false" ht="318.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A96" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>191</v>
+      </c>
+      <c r="C96" s="3"/>
+    </row>
+    <row r="97" customFormat="false" ht="330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A97" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>193</v>
+      </c>
+      <c r="C97" s="3"/>
+    </row>
+    <row r="98" customFormat="false" ht="330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A98" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>195</v>
+      </c>
+      <c r="C98" s="3"/>
+    </row>
+    <row r="99" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A99" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>197</v>
+      </c>
+      <c r="C99" s="3"/>
+    </row>
+    <row r="100" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A100" s="2" t="s">
+        <v>198</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>199</v>
+      </c>
+      <c r="C100" s="3"/>
+    </row>
+    <row r="101" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A101" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C101" s="3"/>
+    </row>
+    <row r="102" customFormat="false" ht="318.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A102" s="2" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" s="2" t="s">
+        <v>203</v>
+      </c>
+      <c r="C102" s="3"/>
+    </row>
+    <row r="103" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A103" s="2" t="s">
+        <v>204</v>
+      </c>
+      <c r="B103" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C103" s="3"/>
+    </row>
+    <row r="104" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A104" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B104" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C104" s="3"/>
+    </row>
+    <row r="105" customFormat="false" ht="318.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A105" s="2" t="s">
+        <v>208</v>
+      </c>
+      <c r="B105" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C105" s="3"/>
+    </row>
+    <row r="106" customFormat="false" ht="330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A106" s="2" t="s">
+        <v>210</v>
+      </c>
+      <c r="B106" s="2" t="s">
+        <v>211</v>
+      </c>
+      <c r="C106" s="3"/>
+    </row>
+    <row r="107" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A107" s="2" t="s">
+        <v>212</v>
+      </c>
+      <c r="B107" s="2" t="s">
+        <v>213</v>
+      </c>
+      <c r="C107" s="3"/>
+    </row>
+    <row r="108" customFormat="false" ht="330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A108" s="2" t="s">
+        <v>214</v>
+      </c>
+      <c r="B108" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C108" s="3"/>
+    </row>
+    <row r="109" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A109" s="2" t="s">
+        <v>216</v>
+      </c>
+      <c r="B109" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="C109" s="3"/>
+    </row>
+    <row r="110" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A110" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="B110" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C110" s="3"/>
+    </row>
+    <row r="111" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A111" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="B111" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C111" s="3"/>
+    </row>
+    <row r="112" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A112" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="B112" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C112" s="3"/>
+    </row>
+    <row r="113" customFormat="false" ht="330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A113" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="B113" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="C113" s="3"/>
+    </row>
+    <row r="114" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A114" s="2" t="s">
+        <v>226</v>
+      </c>
+      <c r="B114" s="2" t="s">
+        <v>227</v>
+      </c>
+      <c r="C114" s="3"/>
+    </row>
+    <row r="115" customFormat="false" ht="318.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A115" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="B115" s="2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C115" s="3"/>
+    </row>
+    <row r="116" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A116" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="B116" s="2" t="s">
+        <v>231</v>
+      </c>
+      <c r="C116" s="3"/>
+    </row>
+    <row r="117" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A117" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="B117" s="2" t="s">
+        <v>233</v>
+      </c>
+      <c r="C117" s="3"/>
+    </row>
+    <row r="118" customFormat="false" ht="330.7" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A118" s="2" t="s">
+        <v>234</v>
+      </c>
+      <c r="B118" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C118" s="3"/>
+    </row>
+    <row r="119" customFormat="false" ht="318.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A119" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>237</v>
+      </c>
+      <c r="C119" s="3"/>
+    </row>
+    <row r="120" customFormat="false" ht="318.05" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A120" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C120" s="3"/>
+    </row>
+    <row r="121" customFormat="false" ht="343.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A121" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="B121" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="C121" s="3"/>
+    </row>
+    <row r="122" customFormat="false" ht="406.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A122" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="B122" s="2" t="s">
+        <v>243</v>
+      </c>
+      <c r="C122" s="3"/>
+    </row>
+    <row r="123" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A123" s="2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B123" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C123" s="3"/>
+    </row>
+    <row r="124" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A124" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="B124" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C124" s="3"/>
+    </row>
+    <row r="125" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A125" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="B125" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C125" s="3"/>
+    </row>
+    <row r="126" customFormat="false" ht="406.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A126" s="2" t="s">
+        <v>250</v>
+      </c>
+      <c r="B126" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C126" s="3"/>
+    </row>
+    <row r="127" customFormat="false" ht="368.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A127" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="B127" s="2" t="s">
+        <v>253</v>
+      </c>
+      <c r="C127" s="3"/>
+    </row>
+    <row r="128" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A128" s="2" t="s">
+        <v>254</v>
+      </c>
+      <c r="B128" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C128" s="3"/>
+    </row>
+    <row r="129" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A129" s="2" t="s">
+        <v>256</v>
+      </c>
+      <c r="B129" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="C129" s="3"/>
+    </row>
+    <row r="130" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A130" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="B130" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C130" s="3"/>
+    </row>
+    <row r="131" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A131" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="B131" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C131" s="3"/>
+    </row>
+    <row r="132" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A132" s="2" t="s">
+        <v>262</v>
+      </c>
+      <c r="B132" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C132" s="3"/>
+    </row>
+    <row r="133" customFormat="false" ht="368.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A133" s="2" t="s">
+        <v>264</v>
+      </c>
+      <c r="B133" s="2" t="s">
+        <v>265</v>
+      </c>
+      <c r="C133" s="3"/>
+    </row>
+    <row r="134" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A134" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B134" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C134" s="3"/>
+    </row>
+    <row r="135" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A135" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="B135" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="C135" s="3"/>
+    </row>
+    <row r="136" customFormat="false" ht="368.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A136" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="B136" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C136" s="3"/>
+    </row>
+    <row r="137" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A137" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="B137" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C137" s="3"/>
+    </row>
+    <row r="138" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A138" s="2" t="s">
+        <v>274</v>
+      </c>
+      <c r="B138" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C138" s="3"/>
+    </row>
+    <row r="139" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A139" s="2" t="s">
+        <v>276</v>
+      </c>
+      <c r="B139" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C139" s="3"/>
+    </row>
+    <row r="140" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A140" s="2" t="s">
+        <v>278</v>
+      </c>
+      <c r="B140" s="2" t="s">
+        <v>279</v>
+      </c>
+      <c r="C140" s="3"/>
+    </row>
+    <row r="141" customFormat="false" ht="368.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A141" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="B141" s="2" t="s">
+        <v>281</v>
+      </c>
+      <c r="C141" s="3"/>
+    </row>
+    <row r="142" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A142" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="B142" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C142" s="3"/>
+    </row>
+    <row r="143" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A143" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B143" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="C143" s="2"/>
+    </row>
     <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>

--- a/LLM/Prompts/Karol Rzepinski/Idle_Karol_Rzepinski.xlsx
+++ b/LLM/Prompts/Karol Rzepinski/Idle_Karol_Rzepinski.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="286" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="400" uniqueCount="398">
   <si>
     <t xml:space="preserve">Input</t>
   </si>
@@ -3910,6 +3910,1656 @@
 ],
 "stopped_action": "Talk to the priest"
 }</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Eiran.",
+"My mother spoke to fire and it listened.",
+"I fear warmth now more than cold.",
+"Fire speaks back in my dreams."
+],
+"obtained_memories": [
+{"memory": "Ash formed my name in the hearth.", "weight": 25},
+{"memory": "A flame turned blue when I passed.", "weight": 22},
+{"memory": "I awoke with soot on my chest.", "weight": 21},
+{"memory": "Children say the fireplace whispers secrets.", "weight": 23}
+],
+"current_environment": [
+{"action": "Check the orphanage fireplace", "distance": 1},
+{"action": "Visit the ruins of mother’s cottage", "distance": 3},
+{"action": "Talk to the baker about the blue flame", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the orphanage fireplace</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Joran.",
+"My village vanished, but I didn’t.",
+"I walk where no paths lie.",
+"Maps don’t know me anymore."
+],
+"obtained_memories": [
+{"memory": "The road out of town bends differently now.", "weight": 22},
+{"memory": "A compass spun wildly near the old well.", "weight": 23},
+{"memory": "A child swears the village never existed.", "weight": 24},
+{"memory": "My old home is just a field now.", "weight": 25}
+],
+"current_environment": [
+{"action": "Return to the field", "distance": 1},
+{"action": "Check the old well", "distance": 2},
+{"action": "Visit the child again", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the field</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Veyna.",
+"I remember dying once. It didn’t last.",
+"I woke in a coffin, smiling.",
+"My reflection doesn’t follow me anymore."
+],
+"obtained_memories": [
+{"memory": "The undertaker flinched when he saw me.", "weight": 23},
+{"memory": "My death certificate is signed and stamped.", "weight": 24},
+{"memory": "A mirror shattered when I passed by.", "weight": 25},
+{"memory": "My shadow is late to arrive.", "weight": 22}
+],
+"current_environment": [
+{"action": "Confront the undertaker", "distance": 1},
+{"action": "Visit the mortuary records office", "distance": 2},
+{"action": "Stand before the chapel mirror", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Confront the undertaker</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Korran.",
+"No lock has ever stopped me.",
+"The tighter the secret, the sweeter the sound.",
+"People hide things louder than they think."
+],
+"obtained_memories": [
+{"memory": "A door creaked in an empty house.", "weight": 21},
+{"memory": "A ledger vanished from the guild hall.", "weight": 22},
+{"memory": "A whisper mentioned my name in a sealed vault.", "weight": 23},
+{"memory": "I found a second key under my pillow.", "weight": 20}
+],
+"current_environment": [
+{"action": "Check the sealed vault", "distance": 1},
+{"action": "Confront the guild master", "distance": 2},
+{"action": "Inspect the empty house", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": "Inspect the empty house"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Check the sealed vault</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Ilena.",
+"The forest gave me my voice.",
+"I lost it once and spoke in birdsong.",
+"Trees remember more than people."
+],
+"obtained_memories": [
+{"memory": "Birds fell silent when I entered the grove.", "weight": 24},
+{"memory": "A tree swayed without wind as I passed.", "weight": 25},
+{"memory": "Leaves whispered my name backwards.", "weight": 23},
+{"memory": "The woods grew a path overnight.", "weight": 22}
+],
+"current_environment": [
+{"action": "Follow the new path", "distance": 1},
+{"action": "Visit the elder druid", "distance": 2},
+{"action": "Camp by the whispering oak", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the new path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Corwin.",
+"I once wagered my memory and lost.",
+"Now I forget who I was, daily.",
+"But my hands remember the blade."
+],
+"obtained_memories": [
+{"memory": "I carved my initials into the tavern table.", "weight": 20},
+{"memory": "A stranger called me 'captain'.", "weight": 23},
+{"memory": "I found a letter in my writing I don't recall.", "weight": 24},
+{"memory": "My reflection winked when I didn’t.", "weight": 25}
+],
+"current_environment": [
+{"action": "Return to the tavern", "distance": 1},
+{"action": "Speak to the stranger", "distance": 2},
+{"action": "Read the letter aloud", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the tavern</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Lira.",
+"I dream of cities I've never seen.",
+"Each one burns when I wake.",
+"My tears leave ashes."
+],
+"obtained_memories": [
+{"memory": "A charred map appeared in my pack.", "weight": 25},
+{"memory": "A traveler described a city from my dreams.", "weight": 24},
+{"memory": "I burned a paper without fire.", "weight": 23},
+{"memory": "My pillow had soot on it.", "weight": 22}
+],
+"current_environment": [
+{"action": "Track the traveler", "distance": 2},
+{"action": "Draw the city from memory", "distance": 3},
+{"action": "Visit the ash-covered glade", "distance": 1}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the ash-covered glade</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Gael.",
+"I hear music only when danger is near.",
+"The melody never changes.",
+"Once, it played from my own mouth."
+],
+"obtained_memories": [
+{"memory": "A violin string snapped on its own.", "weight": 22},
+{"memory": "A bard froze mid-tune when he saw me.", "weight": 23},
+{"memory": "A song followed me for days.", "weight": 24},
+{"memory": "I woke up humming it, bleeding from my nose.", "weight": 25}
+],
+"current_environment": [
+{"action": "Return to the tavern stage", "distance": 2},
+{"action": "Visit the bard’s grave", "distance": 1},
+{"action": "Record the melody", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the bard’s grave</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Bryn.",
+"I once saved a drowning man. Now I can’t swim.",
+"The sea calls me, but I stay far from its shores.",
+"There are secrets beneath the waves."
+],
+"obtained_memories": [
+{"memory": "The ocean murmured my name last night.", "weight": 23},
+{"memory": "A shipwreck appeared in the distance, though it wasn’t there before.", "weight": 24},
+{"memory": "I found sand in my boots this morning.", "weight": 22},
+{"memory": "A fish with a human face stared at me from the shore.", "weight": 25}
+],
+"current_environment": [
+{"action": "Visit the lighthouse keeper", "distance": 1},
+{"action": "Walk the beach at dawn", "distance": 2},
+{"action": "Inspect the shipwreck", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the lighthouse keeper</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Althar.",
+"The stars are my only companions.",
+"I’ve seen the sky shift in ways that don’t make sense.",
+"My eyes sometimes show a future I don’t want."
+],
+"obtained_memories": [
+{"memory": "The constellations rearranged themselves last night.", "weight": 25},
+{"memory": "I saw a star fall from the sky and crash in the woods.", "weight": 24},
+{"memory": "A comet lingered too long above the town.", "weight": 23},
+{"memory": "My shadow moved before I did.", "weight": 22}
+],
+"current_environment": [
+{"action": "Follow the path to the falling star", "distance": 1},
+{"action": "Consult the astrologer", "distance": 2},
+{"action": "Visit the stone circle", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the path to the falling star</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Kaelen.",
+"I’ve seen the world through different eyes. None of them were my own.",
+"Mirrors never reflect my true form.",
+"I wear a mask, but not to hide—only to see."
+],
+"obtained_memories": [
+{"memory": "A reflection of me stood still in a broken mirror.", "weight": 25},
+{"memory": "I found a mask that wasn’t mine, but it fit perfectly.", "weight": 24},
+{"memory": "Every mirror now shows a version of me I don’t know.", "weight": 23},
+{"memory": "I dreamt of someone else’s life as mine.", "weight": 22}
+],
+"current_environment": [
+{"action": "Return to the broken mirror", "distance": 1},
+{"action": "Visit the mask maker", "distance": 2},
+{"action": "Talk to the blind oracle", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": "Talk to the blind oracle"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the broken mirror</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Elira.",
+"I once found a book that read itself to me.",
+"The pages never end, and neither does the story.",
+"I hear the words of the book in my sleep."
+],
+"obtained_memories": [
+{"memory": "The book started writing its own story while I slept.", "weight": 23},
+{"memory": "I found a chapter with my name in it, but I’ve never read it.", "weight": 24},
+{"memory": "The book’s pages turned by themselves, even when closed.", "weight": 25},
+{"memory": "I woke up with ink on my fingers, but no pen in sight.", "weight": 22}
+],
+"current_environment": [
+{"action": "Read the new chapter of the book", "distance": 1},
+{"action": "Consult the librarian", "distance": 2},
+{"action": "Look for the book’s origins", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Read the new chapter of the book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Corvax.",
+"The night hides things—most of them are mine.",
+"I’ve seen shadows walk on their own.",
+"The dark always remembers."
+],
+"obtained_memories": [
+{"memory": "A shadow moved with me, even in the daylight.", "weight": 23},
+{"memory": "I found a trail of footprints that led to nowhere.", "weight": 22},
+{"memory": "I was sure someone followed me, but no one was there.", "weight": 25},
+{"memory": "A voice whispered my name from the corner of my room.", "weight": 24}
+],
+"current_environment": [
+{"action": "Wait for the shadows to reveal themselves", "distance": 1},
+{"action": "Check the abandoned house at the edge of town", "distance": 2},
+{"action": "Visit the town’s graveyard at midnight", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wait for the shadows to reveal themselves</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Riven.",
+"I once spoke to a crow and it understood me.",
+"Now, I hear its voice in my head.",
+"Birds don’t tell secrets; they sing them."
+],
+"obtained_memories": [
+{"memory": "A crow perched on my window and spoke my name.", "weight": 23},
+{"memory": "The birds followed me wherever I went.", "weight": 24},
+{"memory": "A raven delivered a letter addressed to me, in a language I don’t know.", "weight": 25},
+{"memory": "The birds began to speak in riddles.", "weight": 22}
+],
+"current_environment": [
+{"action": "Talk to the raven", "distance": 1},
+{"action": "Visit the old aviary", "distance": 2},
+{"action": "Follow the flock of crows", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Talk to the raven</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Kael.",
+"I’ve been to places that don’t exist anymore.",
+"I met people who no longer remember me.",
+"I remember every lie ever told to me."
+],
+"obtained_memories": [
+{"memory": "I met a man who knew my name before I said it.", "weight": 24},
+{"memory": "I found an old photograph of someone I don’t recognize, but they look like me.", "weight": 25},
+{"memory": "I crossed a bridge that didn’t lead to anywhere I knew.", "weight": 23},
+{"memory": "A woman spoke of a town I once lived in, though it’s not on any map.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search for the lost town", "distance": 3},
+{"action": "Ask the man about my name", "distance": 1},
+{"action": "Visit the photograph’s source", "distance": 2}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for the lost town</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Phara.",
+"I’ve heard the world bend in ways it shouldn’t.",
+"I once held a door that opened into nowhere.",
+"Time is no longer a straight line for me."
+],
+"obtained_memories": [
+{"memory": "I walked backwards for hours but ended up where I started.", "weight": 25},
+{"memory": "A door opened to an endless hallway.", "weight": 24},
+{"memory": "I saw the same person in two places at once.", "weight": 23},
+{"memory": "I woke up in the same bed twice in one night.", "weight": 22}
+],
+"current_environment": [
+{"action": "Return to the door", "distance": 1},
+{"action": "Follow the person in two places", "distance": 2},
+{"action": "Ask the old woman about time’s loops", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the door</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Lior.",
+"I once lived a different life in another city.",
+"Every time I wake, I remember a new part of it.",
+"The city is gone, but I still hear its sounds."
+],
+"obtained_memories": [
+{"memory": "I found a letter from a place that doesn’t exist.", "weight": 23},
+{"memory": "The city’s skyline appeared in a dream, but it’s never been real.", "weight": 24},
+{"memory": "I woke up to the sound of city bells ringing.", "weight": 25},
+{"memory": "A figure from the city stood at the edge of the dock, watching me.", "weight": 22}
+],
+"current_environment": [
+{"action": "Visit the dock where the figure stood", "distance": 1},
+{"action": "Ask the dreamers about the city", "distance": 2},
+{"action": "Search for the letter’s sender", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the dock where the figure stood</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Vesper.",
+"I found a book that predicted my life.",
+"The next chapter is always written in ink I can’t read.",
+"Every time I turn a page, something changes."
+],
+"obtained_memories": [
+{"memory": "The book started writing a new chapter before I finished the last.", "weight": 24},
+{"memory": "The book’s pages are blank except for my name.", "weight": 25},
+{"memory": "I found a page describing my death in detail.", "weight": 23},
+{"memory": "I woke up with ink on my hands but no pen.", "weight": 22}
+],
+"current_environment": [
+{"action": "Find the next page of the book", "distance": 1},
+{"action": "Consult the mystic about the book", "distance": 2},
+{"action": "Burn the book", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": "Burn the book"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the next page of the book</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Thoren.",
+"I once heard a song that no one else could hear.",
+"The melody still lingers in my mind.",
+"Sometimes I hear it at night, calling me."
+],
+"obtained_memories": [
+{"memory": "I found a strange instrument in the forest.", "weight": 23},
+{"memory": "The song played when I touched the instrument.", "weight": 24},
+{"memory": "I dreamt of the song every night.", "weight": 25},
+{"memory": "The song is louder when I approach the old well.", "weight": 22}
+],
+"current_environment": [
+{"action": "Visit the old well", "distance": 1},
+{"action": "Play the instrument at dawn", "distance": 2},
+{"action": "Search the forest for more instruments", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the old well</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Azra.",
+"I’ve seen the moon split in two.",
+"The world never looked the same after that night.",
+"The cracks in the moon seem to pulse with light at midnight."
+],
+"obtained_memories": [
+{"memory": "I saw a fragment of the moon fall into the forest.", "weight": 25},
+{"memory": "The sky was torn open when the moon cracked.", "weight": 24},
+{"memory": "I heard a voice from the moon calling me by name.", "weight": 23},
+{"memory": "The moon’s light follows me when I leave the town.", "weight": 22}
+],
+"current_environment": [
+{"action": "Follow the moonlight into the forest", "distance": 1},
+{"action": "Ask the hermit about the moon’s cracks", "distance": 2},
+{"action": "Look for the fallen moon fragment", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the moonlight into the forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Morgath.",
+"I once spoke with a beast that wore a crown.",
+"It asked me a riddle, and I failed to answer.",
+"It said I would find the answer when I least expected it."
+],
+"obtained_memories": [
+{"memory": "I saw a crown floating on the surface of the lake.", "weight": 23},
+{"memory": "A creature with glowing eyes watched me from the trees.", "weight": 24},
+{"memory": "I heard the riddle again in my dreams.", "weight": 25},
+{"memory": "The crown I saw had strange symbols etched into it.", "weight": 22}
+],
+"current_environment": [
+{"action": "Visit the lake and search for the crown", "distance": 1},
+{"action": "Return to the forest and wait for the creature", "distance": 2},
+{"action": "Ask the wise woman about the riddle", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": "Ask the wise woman about the riddle"
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the lake and search for the crown</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Elda.",
+"I once saw a star fall, and it turned the night into day.",
+"I followed the light to the mountains.",
+"The mountains have secrets buried deep within them."
+],
+"obtained_memories": [
+{"memory": "The star I followed was not a star at all, but a ship.", "weight": 23},
+{"memory": "I found a crater where the star fell.", "weight": 24},
+{"memory": "The ground around the crater glows at night.", "weight": 25},
+{"memory": "I saw shadows moving beneath the earth.", "weight": 22}
+],
+"current_environment": [
+{"action": "Climb the mountains to the crater", "distance": 1},
+{"action": "Search the crater for the ship", "distance": 2},
+{"action": "Investigate the glowing earth", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Climb the mountains to the crater</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Jorin.",
+"I once traded my shadow for something I wanted.",
+"Now I can’t seem to cast a shadow, no matter how hard I try.",
+"I hear whispers from the corner of my vision."
+],
+"obtained_memories": [
+{"memory": "I saw my shadow move on its own in the corner of a room.", "weight": 23},
+{"memory": "I found a piece of my shadow, as if it had been cut off.", "weight": 24},
+{"memory": "A figure without a shadow watched me from the street.", "weight": 25},
+{"memory": "I feel the weight of my missing shadow every time I walk in the sun.", "weight": 22}
+],
+"current_environment": [
+{"action": "Find the person who traded my shadow", "distance": 1},
+{"action": "Search the alley where I lost my shadow", "distance": 2},
+{"action": "Consult the shadow magician", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the person who traded my shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Kaelith.",
+"I once met a stranger with no face.",
+"They told me the world would be remade in their image.",
+"I haven’t seen the stranger since, but I feel their presence."
+],
+"obtained_memories": [
+{"memory": "I saw a faceless figure standing in the fog.", "weight": 24},
+{"memory": "A stranger in the market wore a mask that never fit.", "weight": 23},
+{"memory": "The face of the stranger appeared in a reflection, but not my own.", "weight": 25},
+{"memory": "The world felt warped when I looked at the stranger.", "weight": 22}
+],
+"current_environment": [
+{"action": "Look for the faceless figure in the market", "distance": 1},
+{"action": "Return to the fog where I last saw them", "distance": 2},
+{"action": "Ask the mystic about the stranger", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for the faceless figure in the market</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Zhanar.",
+"I once crossed a bridge that appeared only at midnight.",
+"I crossed it, and I have never been the same since.",
+"The bridge now follows me wherever I go."
+],
+"obtained_memories": [
+{"memory": "I saw the bridge appear in my dreams.", "weight": 23},
+{"memory": "The bridge whispered my name when I passed it again.", "weight": 24},
+{"memory": "I found the bridge in a valley that wasn’t there before.", "weight": 25},
+{"memory": "The bridge was made of silver, but now it glows with a strange light.", "weight": 22}
+],
+"current_environment": [
+{"action": "Find the bridge at midnight", "distance": 1},
+{"action": "Cross the bridge again", "distance": 2},
+{"action": "Search for the valley where the bridge appeared", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the bridge at midnight</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Ilana.",
+"I once met a man who lived for centuries.",
+"He told me time had no meaning for him, but he still felt it.",
+"I wonder if I could live the same way."
+],
+"obtained_memories": [
+{"memory": "The man never aged, though he spoke of countless years.", "weight": 23},
+{"memory": "He disappeared when I looked away, but I heard his voice calling me.", "weight": 24},
+{"memory": "The man left behind a book that detailed every second of his life.", "weight": 25},
+{"memory": "I sometimes hear his voice in my dreams, but I can’t understand what he says.", "weight": 22}
+],
+"current_environment": [
+{"action": "Follow the voice in my dreams", "distance": 1},
+{"action": "Search for the man’s book", "distance": 2},
+{"action": "Ask the town historian about the man", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the voice in my dreams</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Lira.",
+"I’ve touched the sky, but it was not a dream.",
+"The sky is different now, and I can feel its presence.",
+"It speaks in whispers, but only to me."
+],
+"obtained_memories": [
+{"memory": "I saw a tear in the sky, and through it, I saw another world.", "weight": 24},
+{"memory": "The sky turned purple when I reached out to it.", "weight": 23},
+{"memory": "I found a feather that fell from the tear in the sky.", "weight": 25},
+{"memory": "The sky has begun to follow me wherever I go.", "weight": 22}
+],
+"current_environment": [
+{"action": "Reach out to the sky again", "distance": 1},
+{"action": "Look for the feather’s source", "distance": 2},
+{"action": "Search for the tear in the sky", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Reach out to the sky again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Finn.",
+"I’ve seen the horizon break apart.",
+"I watched the sun fall into the ocean, and then it rose again.",
+"The horizon no longer stays still, and I can never look away."
+],
+"obtained_memories": [
+{"memory": "The horizon split open, revealing a vast empty space.", "weight": 25},
+{"memory": "I watched the ocean swallow the sun and rise again.", "weight": 24},
+{"memory": "I saw a city in the distance that no one else could see.", "weight": 23},
+{"memory": "The horizon pulled me toward it, and I could feel it calling.", "weight": 22}
+],
+"current_environment": [
+{"action": "Follow the horizon to the city", "distance": 1},
+{"action": "Watch the horizon until it breaks again", "distance": 2},
+{"action": "Search for the source of the horizon’s call", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the horizon to the city</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Talia.",
+"I once followed a bird that flew without wings.",
+"It led me to a hidden garden.",
+"The garden no longer exists, but the bird still watches."
+],
+"obtained_memories": [
+{"memory": "The bird's feathers shimmered with colors I had never seen before.", "weight": 24},
+{"memory": "I remember hearing its song echo in the night.", "weight": 23},
+{"memory": "The bird led me to an old well that had long since dried up.", "weight": 25},
+{"memory": "The bird's shadow follows me even though it has never been close.", "weight": 22}
+],
+"current_environment": [
+{"action": "Return to the garden’s last known location", "distance": 1},
+{"action": "Follow the bird’s shadow", "distance": 2},
+{"action": "Ask the town elder about the garden", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the garden’s last known location</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Lorin.",
+"I once saw a fire that burned without heat.",
+"The fire turned the air to ash, but I was unharmed.",
+"I wonder if that fire still burns, somewhere."
+],
+"obtained_memories": [
+{"memory": "I saw a small flame flicker in the distance, but it felt cold.", "weight": 25},
+{"memory": "The air around the fire was thick with whispers, but no one was there.", "weight": 24},
+{"memory": "The ground near the fire was scorched, yet nothing caught flame.", "weight": 23},
+{"memory": "I once heard a voice calling from the flames, but I couldn’t understand it.", "weight": 22}
+],
+"current_environment": [
+{"action": "Look for the cold fire", "distance": 1},
+{"action": "Investigate the scorched ground", "distance": 2},
+{"action": "Listen for the voice in the fire", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for the cold fire</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Veir.",
+"I once encountered a stone that spoke in riddles.",
+"It said I would find something priceless, but it would cost me dearly.",
+"I’ve been searching for that something ever since."
+],
+"obtained_memories": [
+{"memory": "I found the stone, but its riddle made no sense to me.", "weight": 24},
+{"memory": "The stone's voice echoed in my mind long after I left.", "weight": 23},
+{"memory": "I met a beggar who spoke as though he knew the answer.", "weight": 25},
+{"memory": "I found an old map that seemed to lead to the stone’s origin.", "weight": 22}
+],
+"current_environment": [
+{"action": "Ask the beggar about the stone’s riddle", "distance": 1},
+{"action": "Follow the map to the stone’s origin", "distance": 2},
+{"action": "Search for more clues in the old library", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask the beggar about the stone’s riddle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Brann.",
+"I once watched the ocean swallow the sky.",
+"The waves were calm, but the sky was full of chaos.",
+"I still hear the crashing of waves in my dreams."
+],
+"obtained_memories": [
+{"memory": "The sky turned red as the ocean rose to meet it.", "weight": 25},
+{"memory": "I heard a voice from beneath the waves, but no one else could hear it.", "weight": 24},
+{"memory": "The ocean was silent for days after the event.", "weight": 23},
+{"memory": "I found a shell that whispered the sky’s secrets.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search the shore for more shells", "distance": 1},
+{"action": "Investigate the ocean’s depths", "distance": 2},
+{"action": "Speak to the fisherman about the strange event", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search the shore for more shells</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Amara.",
+"I once found a door in the middle of the forest.",
+"The door was made of glass, and it reflected everything except the trees.",
+"I wonder what lies beyond it."
+],
+"obtained_memories": [
+{"memory": "I saw a figure standing behind the glass door, but it never moved.", "weight": 25},
+{"memory": "The door seemed to follow me when I moved away.", "weight": 24},
+{"memory": "I once touched the glass, and the air around it grew colder.", "weight": 23},
+{"memory": "I found strange symbols etched into the glass that I couldn’t understand.", "weight": 22}
+],
+"current_environment": [
+{"action": "Return to the door in the forest", "distance": 1},
+{"action": "Touch the glass door again", "distance": 2},
+{"action": "Ask the hermit about the door", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Return to the door in the forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Eldrin.",
+"I once crossed a river that was made of stars.",
+"The stars were cold to the touch, and they whispered ancient secrets.",
+"I can still hear their whispers when the wind is quiet."
+],
+"obtained_memories": [
+{"memory": "I saw the river again in a dream, and it was even brighter.", "weight": 24},
+{"memory": "The stars in the river seemed to move like fish swimming in the current.", "weight": 23},
+{"memory": "I found a stone shaped like a star, but it burned my hand when I touched it.", "weight": 25},
+{"memory": "I heard a voice from the river calling my name.", "weight": 22}
+],
+"current_environment": [
+{"action": "Visit the river at night", "distance": 1},
+{"action": "Follow the whispers to their source", "distance": 2},
+{"action": "Look for the star-shaped stone again", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the river at night</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Fenris.",
+"I once met a wolf that spoke with the voice of a man.",
+"The wolf told me the end of the world was coming, but only I could stop it.",
+"I still hear the wolf’s voice in my head."
+],
+"obtained_memories": [
+{"memory": "I saw the wolf again, but it was surrounded by flames.", "weight": 23},
+{"memory": "The wolf spoke in riddles, and each one grew darker.", "weight": 24},
+{"memory": "I once found the wolf’s tracks, but they vanished when I followed them.", "weight": 25},
+{"memory": "I felt the ground tremble when I called the wolf’s name.", "weight": 22}
+],
+"current_environment": [
+{"action": "Call the wolf’s name and wait for an answer", "distance": 1},
+{"action": "Search for the wolf’s tracks", "distance": 2},
+{"action": "Ask the seer about the coming end", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 3},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Call the wolf’s name and wait for an answer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Darian.",
+"I once encountered a door that opened to the sky.",
+"Through it, I saw a storm brewing on the horizon.",
+"I haven’t seen that door since, but the storm is still coming."
+],
+"obtained_memories": [
+{"memory": "The sky behind the door was filled with swirling clouds.", "weight": 23},
+{"memory": "I heard a voice calling me from within the storm.", "weight": 24},
+{"memory": "The storm seemed to follow me wherever I went.", "weight": 25},
+{"memory": "I found a key, but it didn’t fit any lock.", "weight": 22}
+],
+"current_environment": [
+{"action": "Find the door again", "distance": 1},
+{"action": "Follow the storm to its origin", "distance": 2},
+{"action": "Ask the traveler about the door", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the door again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Keldrin.",
+"I once spoke to a tree that lived for centuries.",
+"The tree told me it had seen the rise and fall of kingdoms.",
+"I still visit the tree, though it has not spoken since."
+],
+"obtained_memories": [
+{"memory": "The tree’s bark was etched with symbols I couldn’t read.", "weight": 24},
+{"memory": "I once found a leaf from the tree that seemed to glow.", "weight": 23},
+{"memory": "The tree's shadow grows long even during midday.", "weight": 25},
+{"memory": "I sometimes hear whispers from the tree when the wind blows.", "weight": 22}
+],
+"current_environment": [
+{"action": "Visit the tree again", "distance": 1},
+{"action": "Look for more glowing leaves", "distance": 2},
+{"action": "Seek out the tree’s root", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Visit the tree again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Elenor.",
+"I once saw a shadow that did not belong to me.",
+"It moved when I moved, but it had a will of its own.",
+"I have not seen the shadow since, but I feel it watching me."
+],
+"obtained_memories": [
+{"memory": "I saw the shadow again, standing in the corner of my vision.", "weight": 24},
+{"memory": "The shadow whispered my name, but no one else heard it.", "weight": 23},
+{"memory": "I felt cold when the shadow touched me.", "weight": 25},
+{"memory": "The shadow began to grow darker the longer I ignored it.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search for the shadow in the corner of my vision", "distance": 1},
+{"action": "Ask the old woman about shadows", "distance": 2},
+{"action": "Visit the spot where I last saw the shadow", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for the shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Caelan.",
+"I once saw a tree that reached up to the stars.",
+"Its leaves whispered the names of forgotten gods.",
+"I wonder if the tree still stands, or if the stars have moved on."
+],
+"obtained_memories": [
+{"memory": "The tree’s roots stretched across the land like a living web.", "weight": 24},
+{"memory": "I felt a power within the tree that pulsed with every breath.", "weight": 23},
+{"memory": "I saw a figure standing beneath the tree, but when I approached, they vanished.", "weight": 25},
+{"memory": "The stars above the tree flickered like they were alive.", "weight": 22}
+],
+"current_environment": [
+{"action": "Find the tree again", "distance": 1},
+{"action": "Investigate the roots of the tree", "distance": 2},
+{"action": "Look for the mysterious figure", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the tree again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Aleron.",
+"I once followed a path that led to nowhere.",
+"The path seemed endless, and I couldn’t turn back.",
+"I still hear the whispers of the road calling me, but I don’t know where it leads."
+],
+"obtained_memories": [
+{"memory": "The path twisted and turned, but never led anywhere.", "weight": 23},
+{"memory": "I saw shadows move on the path, but no one was there.", "weight": 24},
+{"memory": "The ground beneath the path was soft, as though it was alive.", "weight": 25},
+{"memory": "I found a signpost that pointed in all directions, but none of the arrows made sense.", "weight": 22}
+],
+"current_environment": [
+{"action": "Follow the path again", "distance": 1},
+{"action": "Examine the signpost more closely", "distance": 2},
+{"action": "Look for others who may have traveled the path", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the path again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Isolde.",
+"I once saw the moon fall from the sky.",
+"It shattered into a thousand pieces, and each piece held a secret.",
+"I wonder if the pieces are still out there, waiting to be found."
+],
+"obtained_memories": [
+{"memory": "I found a piece of the moon, but it was cold to the touch.", "weight": 25},
+{"memory": "The moon’s fragments seemed to glow with an eerie light.", "weight": 24},
+{"memory": "I heard voices coming from the moon’s pieces, but they spoke in a language I didn’t understand.", "weight": 23},
+{"memory": "I once saw a star fall in the same manner, but it did not shatter.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search for pieces of the moon", "distance": 1},
+{"action": "Listen for the voices in the fragments", "distance": 2},
+{"action": "Ask the astronomer about the fallen moon", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for pieces of the moon</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Garen.",
+"I once found a book that read my thoughts.",
+"The book knew my secrets before I did, and it showed me things I could never unsee.",
+"I wonder if the book still exists or if it burned with the fire that destroyed my home."
+],
+"obtained_memories": [
+{"memory": "The book’s pages were blank until I touched them.", "weight": 24},
+{"memory": "I saw images from my past in the book, but they were distorted.", "weight": 23},
+{"memory": "The book whispered my name in a voice I couldn’t recognize.", "weight": 25},
+{"memory": "I burned the book, but I still see the words it showed me in my dreams.", "weight": 22}
+],
+"current_environment": [
+{"action": "Look for the book’s remnants", "distance": 1},
+{"action": "Search the library for similar books", "distance": 2},
+{"action": "Ask the scholar about cursed books", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for the book’s remnants</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Kaida.",
+"I once saw a creature that was neither man nor beast.",
+"It moved like smoke and whispered in a language I could not understand.",
+"I still feel its presence, though I haven’t seen it since."
+],
+"obtained_memories": [
+{"memory": "The creature’s eyes were the color of the void.", "weight": 25},
+{"memory": "It left no footprints, but the air around it felt colder.", "weight": 24},
+{"memory": "I heard its whispers when the wind howled, but the voice was always different.", "weight": 23},
+{"memory": "I once found a piece of its skin, but it turned to ash when I touched it.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search for traces of the creature", "distance": 1},
+{"action": "Ask the hermit about the creature", "distance": 2},
+{"action": "Wait for the creature to appear again", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for traces of the creature</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Seris.",
+"I once met a man who could see the future.",
+"He told me that my actions would decide the fate of the world.",
+"I have been trying to decipher his words ever since."
+],
+"obtained_memories": [
+{"memory": "The man’s eyes glowed with an unnatural light.", "weight": 23},
+{"memory": "He spoke of a great choice I would make, but never told me what it was.", "weight": 24},
+{"memory": "I saw him again, but his face was hidden beneath a cloak of shadows.", "weight": 25},
+{"memory": "The man’s words echoed in my mind whenever I was faced with a choice.", "weight": 22}
+],
+"current_environment": [
+{"action": "Find the man again", "distance": 1},
+{"action": "Visit the oracle for guidance", "distance": 2},
+{"action": "Search for clues about the choice", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Find the man again</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Jorin.",
+"I once saw the stars fall from the sky and land in the sea.",
+"The sea swallowed them whole, and I never saw them again.",
+"I wonder if the stars are still there, hidden beneath the waves."
+],
+"obtained_memories": [
+{"memory": "The sea was calm when the stars fell, but the water turned black afterwards.", "weight": 24},
+{"memory": "I felt the sea pull me towards it, as if it wanted me to follow.", "weight": 23},
+{"memory": "I once found a piece of star-glass washed up on the shore.", "weight": 25},
+{"memory": "I heard the stars whispering from beneath the waves, but no one else could hear it.", "weight": 22}
+],
+"current_environment": [
+{"action": "Dive into the sea and search for the stars", "distance": 1},
+{"action": "Look for more star-glass on the shore", "distance": 2},
+{"action": "Ask the fisherman about the falling stars", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dive into the sea and search for the stars</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Astrid.",
+"I once saw a bird fly through the clouds without flapping its wings.",
+"The bird disappeared into the clouds, and I never saw it again.",
+"I wonder if the bird still flies in the sky, or if it was a dream."
+],
+"obtained_memories": [
+{"memory": "The bird’s feathers were made of light, and its shadow never touched the ground.", "weight": 25},
+{"memory": "The bird sang a song that echoed in my mind for days after I saw it.", "weight": 24},
+{"memory": "I once saw a cloud shaped like the bird, but it vanished when I tried to touch it.", "weight": 23},
+{"memory": "The bird’s song still plays in my dreams.", "weight": 22}
+],
+"current_environment": [
+{"action": "Look for the bird in the sky", "distance": 1},
+{"action": "Search for other signs of the bird", "distance": 2},
+{"action": "Ask the old man about the bird", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for the bird in the sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Faelan.",
+"I once saw a storm that carried the voices of the dead.",
+"The voices called out to me, but I couldn’t understand them.",
+"I wonder if the storm still rages, or if it has passed."
+],
+"obtained_memories": [
+{"memory": "The storm’s winds howled with the voices of the lost.", "weight": 24},
+{"memory": "I felt the voices brush against my skin, cold like death.", "weight": 25},
+{"memory": "The storm never seemed to end, always shifting and changing.", "weight": 23},
+{"memory": "I heard a voice calling my name from within the storm.", "weight": 22}
+],
+"current_environment": [
+{"action": "Follow the storm’s path", "distance": 1},
+{"action": "Listen for the voices in the storm", "distance": 2},
+{"action": "Ask the seer about the storm", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the storm’s path</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Galen.",
+"I once saw a man whose shadow did not match his movements.",
+"The shadow moved like it had a mind of its own.",
+"I wonder if that man still walks the earth, or if the shadow has taken over."
+],
+"obtained_memories": [
+{"memory": "The shadow stretched unnaturally long, even in broad daylight.", "weight": 24},
+{"memory": "The man’s eyes were always hidden beneath a hood.", "weight": 23},
+{"memory": "I once saw the shadow move on its own, without the man.", "weight": 25},
+{"memory": "I felt the shadow watching me even after the man disappeared.", "weight": 22}
+],
+"current_environment": [
+{"action": "Look for the man with the strange shadow", "distance": 1},
+{"action": "Follow the shadow’s trail", "distance": 2},
+{"action": "Ask the town’s guards about the man", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for the man with the strange shadow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Orin.",
+"I once saw a star fall from the sky and land in the mountains.",
+"The star burned with a strange fire that consumed everything around it.",
+"I wonder if the star’s fire still burns, or if it has turned to ash."
+],
+"obtained_memories": [
+{"memory": "The star’s fire burned with a green hue, unlike anything I’d ever seen.", "weight": 25},
+{"memory": "I saw the mountain tremble when the star fell, as though the earth itself was waking.", "weight": 24},
+{"memory": "I found a rock near the site that still radiated heat, even after years had passed.", "weight": 23},
+{"memory": "I heard a voice calling from the mountain’s peak, but no one was there.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search for the star’s landing site", "distance": 1},
+{"action": "Climb the mountain to reach the peak", "distance": 2},
+{"action": "Ask the villagers about the star", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for the star’s landing site</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Elysia.",
+"I once saw a bird with wings made of fire.",
+"It soared through the sky, leaving a trail of flames behind it.",
+"I wonder if the bird still flies, or if it has burned out."
+],
+"obtained_memories": [
+{"memory": "The bird’s wings shimmered like molten gold.", "weight": 25},
+{"memory": "Its song sounded like a storm, filled with power and fury.", "weight": 24},
+{"memory": "I felt the heat of the bird’s wings even from a distance.", "weight": 23},
+{"memory": "I heard that the bird only appears during times of great change.", "weight": 22}
+],
+"current_environment": [
+{"action": "Look for the bird in the sky", "distance": 1},
+{"action": "Search for signs of the bird on the ground", "distance": 2},
+{"action": "Ask the elders about the fiery bird", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Darian.",
+"I once heard the voice of the wind speak my name.",
+"The wind told me things that no one else knew.",
+"I still hear its whispers when the wind blows through the trees."
+],
+"obtained_memories": [
+{"memory": "The wind’s voice sounded like the rustling of leaves, but with an undertone of something ancient.", "weight": 25},
+{"memory": "I felt the wind tugging at my clothes, as if trying to lead me somewhere.", "weight": 24},
+{"memory": "The voice of the wind called me by name again, but I couldn’t find where it was coming from.", "weight": 23},
+{"memory": "I once saw a cloud shaped like a hand, reaching towards me from the horizon.", "weight": 22}
+],
+"current_environment": [
+{"action": "Follow the wind’s whispers", "distance": 1},
+{"action": "Look for signs of the wind’s voice", "distance": 2},
+{"action": "Ask the hermit about the wind", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the wind’s whispers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Selene.",
+"I once saw a moon that wasn’t the moon.",
+"It was a pale, cold reflection of something else, something that shouldn’t exist.",
+"I wonder if it still hangs in the sky, or if it has faded away."
+],
+"obtained_memories": [
+{"memory": "The moon’s reflection was perfect, yet wrong, like a dream that couldn’t be real.", "weight": 25},
+{"memory": "I felt a chill in the air when I looked at the moon, as though something was watching me.", "weight": 24},
+{"memory": "The moon’s light cast no shadows, yet the land seemed darker in its presence.", "weight": 23},
+{"memory": "I saw the reflection of the moon in a pond, and for a moment, I saw a face in its depths.", "weight": 22}
+],
+"current_environment": [
+{"action": "Look for the strange moon in the sky", "distance": 1},
+{"action": "Investigate the pond where I saw the reflection", "distance": 2},
+{"action": "Ask the elder about the moon’s reflection", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Look for the strange moon in the sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Valen.",
+"I once met a man who could speak to the dead.",
+"He told me secrets of the world, but also warned me to never seek out the dead myself.",
+"I wonder if his warning was just fear, or if there’s truth to it."
+],
+"obtained_memories": [
+{"memory": "The man’s eyes were hollow, like someone who had seen too much.", "weight": 25},
+{"memory": "I heard whispers of the dead in the air, but no one else seemed to notice.", "weight": 24},
+{"memory": "I once saw the man vanish into the shadows without a trace.", "weight": 23},
+{"memory": "I heard the dead speak to me in my dreams, but they never said anything useful.", "weight": 22}
+],
+"current_environment": [
+{"action": "Ask the man who speaks to the dead for more answers", "distance": 1},
+{"action": "Investigate the whispers of the dead", "distance": 2},
+{"action": "Look for a medium who can contact the dead", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Ask the man who speaks to the dead for more answers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Lysandra.",
+"I once saw a snake that spoke in riddles.",
+"Its scales shimmered with all the colors of the rainbow, and its voice was hypnotic.",
+"I wonder if the snake still lives, or if it has slithered away into the unknown."
+],
+"obtained_memories": [
+{"memory": "The snake’s voice wrapped around me like a warm breeze, coaxing me to listen.", "weight": 25},
+{"memory": "The riddles it spoke were strange and filled with meaning, but I couldn’t understand them.", "weight": 24},
+{"memory": "I saw the snake disappear into the trees, but its eyes stayed with me.", "weight": 23},
+{"memory": "I heard the snake’s riddle again in my dreams, but it made no more sense than before.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search for the snake", "distance": 1},
+{"action": "Ask the elder about the snake’s riddles", "distance": 2},
+{"action": "Look for signs of the snake in the forest", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for the snake</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Thorne.",
+"I once met a woman who could see the future, but she refused to share what she saw.",
+"Her eyes were full of sorrow, as if she knew something terrible was coming.",
+"I wonder if she ever spoke the truth, or if she was just a woman lost in her own vision."
+],
+"obtained_memories": [
+{"memory": "The woman’s hands shook as she refused to speak of the future.", "weight": 24},
+{"memory": "I saw her walk into the forest, but she never came back.", "weight": 25},
+{"memory": "I felt a cold breeze when I thought of her, as if the future itself was closing in.", "weight": 23},
+{"memory": "I once saw a shadow follow her, though she never seemed to notice.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search for the woman in the forest", "distance": 1},
+{"action": "Ask the villagers about her visions", "distance": 2},
+{"action": "Look for any trace of the woman", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 2}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for the woman in the forest</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Lira.",
+"I once saw a cloud in the shape of a beast chasing the sun.",
+"The cloud moved with unnatural speed and intensity, as if it were alive.",
+"I wonder if that cloud still roams the sky, or if it has been swallowed by the winds."
+],
+"obtained_memories": [
+{"memory": "The cloud’s shape was terrifying, with massive wings that seemed to stretch across the horizon.", "weight": 25},
+{"memory": "I felt a strange pressure in the air when I saw the cloud, as though it was watching me.", "weight": 24},
+{"memory": "I once saw the cloud clash with the sun, and the sky was filled with fire and light.", "weight": 23},
+{"memory": "The cloud seemed to follow the sun, no matter where it went.", "weight": 22}
+],
+"current_environment": [
+{"action": "Search for the cloud in the sky", "distance": 1},
+{"action": "Look for signs of the cloud in the forest", "distance": 2},
+{"action": "Ask the elders about the cloud", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 2},
+{"need": "thirst", "weight": 1}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Search for the cloud in the sky</t>
+  </si>
+  <si>
+    <t xml:space="preserve">{
+"core_memories": [
+"My name is Rhea.",
+"I once saw a river that ran backward.",
+"It flowed uphill, as if defying nature itself.",
+"I wonder if the river still runs, or if it has returned to its proper course."
+],
+"obtained_memories": [
+{"memory": "The river’s waters were clear, but I could feel an unnatural current in them.", "weight": 24},
+{"memory": "I saw the river swallow the rocks, carrying them upstream.", "weight": 25},
+{"memory": "I heard the river’s song, but it was unlike any song I’d ever heard before.", "weight": 23},
+{"memory": "I once found a fish that was swimming in reverse, as if the river had changed it.", "weight": 22}
+],
+"current_environment": [
+{"action": "Follow the river upstream", "distance": 1},
+{"action": "Look for the source of the river", "distance": 2},
+{"action": "Ask the villagers about the river’s strange behavior", "distance": 3}
+],
+"needs": [
+{"need": "hunger", "weight": 1},
+{"need": "thirst", "weight": 3}
+],
+"stopped_action": ""
+}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Follow the river upstream</t>
   </si>
 </sst>
 </file>
@@ -4028,8 +5678,8 @@
   </sheetPr>
   <dimension ref="A1:C201"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A158" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B179" activeCellId="0" sqref="B179"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A200" colorId="64" zoomScale="80" zoomScaleNormal="80" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B200" activeCellId="0" sqref="B200"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.4296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -5241,63 +6891,462 @@
       </c>
       <c r="C143" s="2"/>
     </row>
-    <row r="144" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="145" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="146" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="147" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="148" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="149" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="150" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="151" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="152" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="153" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="154" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="155" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="156" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="157" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="158" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="159" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="160" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="161" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="162" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="163" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="164" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="165" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="166" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="167" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="168" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="169" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="170" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="171" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="172" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="173" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="174" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="175" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="176" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="177" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="178" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="179" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="180" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="181" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="182" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="184" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="185" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="186" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="187" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="188" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="189" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="190" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="191" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="192" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="193" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="194" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="195" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="196" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="197" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="198" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="199" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="200" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="144" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A144" s="2" t="s">
+        <v>285</v>
+      </c>
+      <c r="B144" s="2" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="145" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A145" s="2" t="s">
+        <v>287</v>
+      </c>
+      <c r="B145" s="2" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="146" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A146" s="2" t="s">
+        <v>289</v>
+      </c>
+      <c r="B146" s="2" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="147" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A147" s="2" t="s">
+        <v>291</v>
+      </c>
+      <c r="B147" s="2" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="148" customFormat="false" ht="368.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A148" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="149" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A149" s="2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="150" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A150" s="2" t="s">
+        <v>297</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="151" customFormat="false" ht="368.65" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A151" s="2" t="s">
+        <v>299</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="152" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A152" s="2" t="s">
+        <v>301</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="153" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A153" s="2" t="s">
+        <v>303</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="154" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A154" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="B154" s="2" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="155" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A155" s="2" t="s">
+        <v>307</v>
+      </c>
+      <c r="B155" s="2" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="156" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A156" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="B156" s="2" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="157" customFormat="false" ht="356" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A157" s="2" t="s">
+        <v>311</v>
+      </c>
+      <c r="B157" s="2" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="158" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A158" s="2" t="s">
+        <v>313</v>
+      </c>
+      <c r="B158" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="159" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A159" s="2" t="s">
+        <v>315</v>
+      </c>
+      <c r="B159" s="2" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="160" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A160" s="2" t="s">
+        <v>317</v>
+      </c>
+      <c r="B160" s="2" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="161" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A161" s="2" t="s">
+        <v>319</v>
+      </c>
+      <c r="B161" s="2" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="162" customFormat="false" ht="381.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A162" s="2" t="s">
+        <v>321</v>
+      </c>
+      <c r="B162" s="2" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="163" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A163" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="B163" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="164" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A164" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="B164" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="165" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A165" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="B165" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="166" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A166" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="B166" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="167" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A167" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="B167" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="168" customFormat="false" ht="406.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A168" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="B168" s="2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="169" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A169" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="B169" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="170" customFormat="false" ht="406.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A170" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="B170" s="2" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="171" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A171" s="2" t="s">
+        <v>339</v>
+      </c>
+      <c r="B171" s="2" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="172" customFormat="false" ht="406.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A172" s="2" t="s">
+        <v>341</v>
+      </c>
+      <c r="B172" s="2" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="173" customFormat="false" ht="406.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A173" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="B173" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="174" customFormat="false" ht="406.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A174" s="2" t="s">
+        <v>345</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="175" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A175" s="2" t="s">
+        <v>347</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="176" customFormat="false" ht="406.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A176" s="2" t="s">
+        <v>349</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="177" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A177" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="178" customFormat="false" ht="431.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A178" s="2" t="s">
+        <v>353</v>
+      </c>
+      <c r="B178" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="179" customFormat="false" ht="406.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A179" s="2" t="s">
+        <v>355</v>
+      </c>
+      <c r="B179" s="2" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="180" customFormat="false" ht="393.95" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A180" s="2" t="s">
+        <v>357</v>
+      </c>
+      <c r="B180" s="2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="181" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A181" s="2" t="s">
+        <v>359</v>
+      </c>
+      <c r="B181" s="2" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="182" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A182" s="2" t="s">
+        <v>361</v>
+      </c>
+      <c r="B182" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="183" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A183" s="2" t="s">
+        <v>363</v>
+      </c>
+      <c r="B183" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="184" customFormat="false" ht="431.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A184" s="2" t="s">
+        <v>365</v>
+      </c>
+      <c r="B184" s="2" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="185" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A185" s="2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B185" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="186" customFormat="false" ht="444.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A186" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="B186" s="2" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="187" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A187" s="2" t="s">
+        <v>371</v>
+      </c>
+      <c r="B187" s="2" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="188" customFormat="false" ht="457.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A188" s="2" t="s">
+        <v>373</v>
+      </c>
+      <c r="B188" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="189" customFormat="false" ht="457.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A189" s="2" t="s">
+        <v>375</v>
+      </c>
+      <c r="B189" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="190" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A190" s="2" t="s">
+        <v>377</v>
+      </c>
+      <c r="B190" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="191" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A191" s="2" t="s">
+        <v>379</v>
+      </c>
+      <c r="B191" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="192" customFormat="false" ht="469.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A192" s="2" t="s">
+        <v>381</v>
+      </c>
+      <c r="B192" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="193" customFormat="false" ht="419.25" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A193" s="2" t="s">
+        <v>383</v>
+      </c>
+      <c r="B193" s="2" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="194" customFormat="false" ht="457.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A194" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="B194" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="195" customFormat="false" ht="469.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A195" s="2" t="s">
+        <v>386</v>
+      </c>
+      <c r="B195" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="196" customFormat="false" ht="444.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A196" s="2" t="s">
+        <v>388</v>
+      </c>
+      <c r="B196" s="2" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="197" customFormat="false" ht="444.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A197" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="B197" s="2" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="198" customFormat="false" ht="444.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A198" s="2" t="s">
+        <v>392</v>
+      </c>
+      <c r="B198" s="2" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="199" customFormat="false" ht="469.85" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A199" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="B199" s="2" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="200" customFormat="false" ht="444.55" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A200" s="2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B200" s="2" t="s">
+        <v>397</v>
+      </c>
+    </row>
     <row r="201" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
